--- a/Financials/Quarterly/NABZY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/NABZY_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704140F4-6AB9-4A9D-B317-494DEAE801BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NABZY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>NABZY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,90 +689,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E7" s="2">
         <v>43190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43008</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42643</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42277</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10225900</v>
+        <v>10223400</v>
       </c>
       <c r="E8" s="3">
-        <v>10196100</v>
+        <v>9970800</v>
       </c>
       <c r="F8" s="3">
-        <v>9687500</v>
+        <v>9941800</v>
       </c>
       <c r="G8" s="3">
-        <v>9958100</v>
+        <v>9445800</v>
       </c>
       <c r="H8" s="3">
-        <v>10089500</v>
+        <v>9709700</v>
       </c>
       <c r="I8" s="3">
-        <v>10014700</v>
+        <v>9837800</v>
       </c>
       <c r="J8" s="3">
+        <v>9764900</v>
+      </c>
+      <c r="K8" s="3">
         <v>10553900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22072000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,8 +806,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -794,8 +838,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -807,8 +854,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -836,8 +884,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,8 +916,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -894,37 +948,43 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-261900</v>
+        <v>-296400</v>
       </c>
       <c r="E15" s="3">
-        <v>-271400</v>
+        <v>-255400</v>
       </c>
       <c r="F15" s="3">
-        <v>-261200</v>
+        <v>-264600</v>
       </c>
       <c r="G15" s="3">
-        <v>-225700</v>
+        <v>-254700</v>
       </c>
       <c r="H15" s="3">
-        <v>-224900</v>
+        <v>-220000</v>
       </c>
       <c r="I15" s="3">
-        <v>-515200</v>
+        <v>-219300</v>
       </c>
       <c r="J15" s="3">
+        <v>-502300</v>
+      </c>
+      <c r="K15" s="3">
         <v>-346800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-493400</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +993,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5593700</v>
+        <v>5744900</v>
       </c>
       <c r="E17" s="3">
-        <v>5581300</v>
+        <v>5454100</v>
       </c>
       <c r="F17" s="3">
-        <v>5335300</v>
+        <v>5442100</v>
       </c>
       <c r="G17" s="3">
-        <v>5672700</v>
+        <v>5202200</v>
       </c>
       <c r="H17" s="3">
-        <v>5582800</v>
+        <v>5531200</v>
       </c>
       <c r="I17" s="3">
-        <v>5714100</v>
+        <v>5443500</v>
       </c>
       <c r="J17" s="3">
+        <v>5571600</v>
+      </c>
+      <c r="K17" s="3">
         <v>6343900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12952700</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4632200</v>
+        <v>4478500</v>
       </c>
       <c r="E18" s="3">
-        <v>4614800</v>
+        <v>4516700</v>
       </c>
       <c r="F18" s="3">
-        <v>4352100</v>
+        <v>4499700</v>
       </c>
       <c r="G18" s="3">
-        <v>4285400</v>
+        <v>4243600</v>
       </c>
       <c r="H18" s="3">
-        <v>4506700</v>
+        <v>4178500</v>
       </c>
       <c r="I18" s="3">
-        <v>4300600</v>
+        <v>4394300</v>
       </c>
       <c r="J18" s="3">
+        <v>4193400</v>
+      </c>
+      <c r="K18" s="3">
         <v>4209900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9119300</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,45 +1071,49 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1687700</v>
+        <v>-1406500</v>
       </c>
       <c r="E20" s="3">
-        <v>-1221200</v>
+        <v>-1645600</v>
       </c>
       <c r="F20" s="3">
-        <v>-1461400</v>
+        <v>-1190700</v>
       </c>
       <c r="G20" s="3">
-        <v>-1024500</v>
+        <v>-1424900</v>
       </c>
       <c r="H20" s="3">
-        <v>-1253100</v>
+        <v>-999000</v>
       </c>
       <c r="I20" s="3">
-        <v>-1171800</v>
+        <v>-1221900</v>
       </c>
       <c r="J20" s="3">
+        <v>-1142600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-434600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3472700</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3206400</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
+        <v>3113000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3126400</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
@@ -1050,20 +1121,23 @@
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
-        <v>3478500</v>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I21" s="3">
-        <v>3408100</v>
+        <v>3391800</v>
       </c>
       <c r="J21" s="3">
+        <v>3323100</v>
+      </c>
+      <c r="K21" s="3">
         <v>4038000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6161100</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1091,66 +1165,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2944500</v>
+        <v>3072000</v>
       </c>
       <c r="E23" s="3">
-        <v>3393600</v>
+        <v>2871000</v>
       </c>
       <c r="F23" s="3">
-        <v>2890800</v>
+        <v>3309000</v>
       </c>
       <c r="G23" s="3">
-        <v>3260800</v>
+        <v>2818700</v>
       </c>
       <c r="H23" s="3">
-        <v>3253600</v>
+        <v>3179500</v>
       </c>
       <c r="I23" s="3">
-        <v>3128800</v>
+        <v>3172400</v>
       </c>
       <c r="J23" s="3">
+        <v>3050700</v>
+      </c>
+      <c r="K23" s="3">
         <v>3775300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5646600</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>857700</v>
+        <v>900600</v>
       </c>
       <c r="E24" s="3">
-        <v>982500</v>
+        <v>836300</v>
       </c>
       <c r="F24" s="3">
-        <v>817000</v>
+        <v>958000</v>
       </c>
       <c r="G24" s="3">
-        <v>940400</v>
+        <v>796600</v>
       </c>
       <c r="H24" s="3">
-        <v>912100</v>
+        <v>916900</v>
       </c>
       <c r="I24" s="3">
-        <v>536900</v>
+        <v>889300</v>
       </c>
       <c r="J24" s="3">
+        <v>523600</v>
+      </c>
+      <c r="K24" s="3">
         <v>1428700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1885100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1261,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2086800</v>
+        <v>2171300</v>
       </c>
       <c r="E26" s="3">
-        <v>2411200</v>
+        <v>2034800</v>
       </c>
       <c r="F26" s="3">
-        <v>2073800</v>
+        <v>2351000</v>
       </c>
       <c r="G26" s="3">
-        <v>2320500</v>
+        <v>2022000</v>
       </c>
       <c r="H26" s="3">
-        <v>2341500</v>
+        <v>2262600</v>
       </c>
       <c r="I26" s="3">
-        <v>2591800</v>
+        <v>2283100</v>
       </c>
       <c r="J26" s="3">
+        <v>2527200</v>
+      </c>
+      <c r="K26" s="3">
         <v>2346600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3761500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2049800</v>
+        <v>2134500</v>
       </c>
       <c r="E27" s="3">
-        <v>2374200</v>
+        <v>1998700</v>
       </c>
       <c r="F27" s="3">
-        <v>2037500</v>
+        <v>2314900</v>
       </c>
       <c r="G27" s="3">
-        <v>2275500</v>
+        <v>1986700</v>
       </c>
       <c r="H27" s="3">
-        <v>2292900</v>
+        <v>2218700</v>
       </c>
       <c r="I27" s="3">
-        <v>2519300</v>
+        <v>2235700</v>
       </c>
       <c r="J27" s="3">
+        <v>2456400</v>
+      </c>
+      <c r="K27" s="3">
         <v>2253000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,37 +1357,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-211100</v>
+        <v>-68600</v>
       </c>
       <c r="E29" s="3">
-        <v>-421600</v>
+        <v>-205900</v>
       </c>
       <c r="F29" s="3">
-        <v>-226400</v>
+        <v>-411100</v>
       </c>
       <c r="G29" s="3">
-        <v>-799600</v>
+        <v>-220700</v>
       </c>
       <c r="H29" s="3">
-        <v>-3603300</v>
+        <v>-779700</v>
       </c>
       <c r="I29" s="3">
-        <v>-464400</v>
+        <v>-3513400</v>
       </c>
       <c r="J29" s="3">
+        <v>-452800</v>
+      </c>
+      <c r="K29" s="3">
         <v>164000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>82700</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1421,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1453,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1687700</v>
+        <v>1406500</v>
       </c>
       <c r="E32" s="3">
-        <v>1221200</v>
+        <v>1645600</v>
       </c>
       <c r="F32" s="3">
-        <v>1461400</v>
+        <v>1190700</v>
       </c>
       <c r="G32" s="3">
-        <v>1024500</v>
+        <v>1424900</v>
       </c>
       <c r="H32" s="3">
-        <v>1253100</v>
+        <v>999000</v>
       </c>
       <c r="I32" s="3">
-        <v>1171800</v>
+        <v>1221900</v>
       </c>
       <c r="J32" s="3">
+        <v>1142600</v>
+      </c>
+      <c r="K32" s="3">
         <v>434600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3472700</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1838700</v>
+        <v>2065900</v>
       </c>
       <c r="E33" s="3">
-        <v>1952600</v>
+        <v>1792800</v>
       </c>
       <c r="F33" s="3">
-        <v>1811100</v>
+        <v>1903900</v>
       </c>
       <c r="G33" s="3">
-        <v>1475900</v>
+        <v>1765900</v>
       </c>
       <c r="H33" s="3">
-        <v>-1310400</v>
+        <v>1439100</v>
       </c>
       <c r="I33" s="3">
-        <v>2054900</v>
+        <v>-1277700</v>
       </c>
       <c r="J33" s="3">
+        <v>2003600</v>
+      </c>
+      <c r="K33" s="3">
         <v>2417000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3702700</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1549,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1838700</v>
+        <v>2065900</v>
       </c>
       <c r="E35" s="3">
-        <v>1952600</v>
+        <v>1792800</v>
       </c>
       <c r="F35" s="3">
-        <v>1811100</v>
+        <v>1903900</v>
       </c>
       <c r="G35" s="3">
-        <v>1475900</v>
+        <v>1765900</v>
       </c>
       <c r="H35" s="3">
-        <v>-1310400</v>
+        <v>1439100</v>
       </c>
       <c r="I35" s="3">
-        <v>2054900</v>
+        <v>-1277700</v>
       </c>
       <c r="J35" s="3">
+        <v>2003600</v>
+      </c>
+      <c r="K35" s="3">
         <v>2417000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3702700</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E38" s="2">
         <v>43190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43008</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42643</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42277</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1634,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,66 +1648,73 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>61342900</v>
+        <v>61253200</v>
       </c>
       <c r="E41" s="3">
-        <v>58695200</v>
+        <v>59812800</v>
       </c>
       <c r="F41" s="3">
-        <v>68277500</v>
+        <v>57231100</v>
       </c>
       <c r="G41" s="3">
-        <v>55048400</v>
+        <v>66574300</v>
       </c>
       <c r="H41" s="3">
-        <v>56416900</v>
+        <v>53675200</v>
       </c>
       <c r="I41" s="3">
-        <v>59157400</v>
+        <v>55009500</v>
       </c>
       <c r="J41" s="3">
+        <v>57681800</v>
+      </c>
+      <c r="K41" s="3">
         <v>65310500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>58136500</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>48602100</v>
+        <v>65167100</v>
       </c>
       <c r="E42" s="3">
-        <v>51447900</v>
+        <v>47389800</v>
       </c>
       <c r="F42" s="3">
-        <v>52711900</v>
+        <v>50164600</v>
       </c>
       <c r="G42" s="3">
-        <v>53845300</v>
+        <v>51397000</v>
       </c>
       <c r="H42" s="3">
-        <v>53324300</v>
+        <v>52502200</v>
       </c>
       <c r="I42" s="3">
-        <v>61118700</v>
+        <v>51994200</v>
       </c>
       <c r="J42" s="3">
+        <v>59594100</v>
+      </c>
+      <c r="K42" s="3">
         <v>59347500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>97366800</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1615,8 +1742,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1644,8 +1774,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1673,8 +1806,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1702,8 +1838,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1731,66 +1870,75 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>903400</v>
+        <v>848300</v>
       </c>
       <c r="E48" s="3">
-        <v>954200</v>
+        <v>880800</v>
       </c>
       <c r="F48" s="3">
-        <v>970100</v>
+        <v>930400</v>
       </c>
       <c r="G48" s="3">
-        <v>1032500</v>
+        <v>945900</v>
       </c>
       <c r="H48" s="3">
-        <v>1065200</v>
+        <v>1006800</v>
       </c>
       <c r="I48" s="3">
-        <v>1263300</v>
+        <v>1038600</v>
       </c>
       <c r="J48" s="3">
+        <v>1231800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1413500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1416400</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4068400</v>
+        <v>4094300</v>
       </c>
       <c r="E49" s="3">
-        <v>4064100</v>
+        <v>3967000</v>
       </c>
       <c r="F49" s="3">
-        <v>3913200</v>
+        <v>3962700</v>
       </c>
       <c r="G49" s="3">
-        <v>3847100</v>
+        <v>3815500</v>
       </c>
       <c r="H49" s="3">
-        <v>4948600</v>
+        <v>3751200</v>
       </c>
       <c r="I49" s="3">
-        <v>5331000</v>
+        <v>4825200</v>
       </c>
       <c r="J49" s="3">
+        <v>5198000</v>
+      </c>
+      <c r="K49" s="3">
         <v>5826600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5601600</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +1966,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +1998,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1502000</v>
+        <v>1473700</v>
       </c>
       <c r="E52" s="3">
-        <v>1442500</v>
+        <v>1464500</v>
       </c>
       <c r="F52" s="3">
-        <v>1241500</v>
+        <v>1406500</v>
       </c>
       <c r="G52" s="3">
-        <v>1396800</v>
+        <v>1210500</v>
       </c>
       <c r="H52" s="3">
-        <v>909900</v>
+        <v>1361900</v>
       </c>
       <c r="I52" s="3">
-        <v>1553500</v>
+        <v>887200</v>
       </c>
       <c r="J52" s="3">
+        <v>1514800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1002100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1173300</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2062,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>577626900</v>
+        <v>570605800</v>
       </c>
       <c r="E54" s="3">
-        <v>572008600</v>
+        <v>563218100</v>
       </c>
       <c r="F54" s="3">
-        <v>572730600</v>
+        <v>557739900</v>
       </c>
       <c r="G54" s="3">
-        <v>563580800</v>
+        <v>558443900</v>
       </c>
       <c r="H54" s="3">
-        <v>630350500</v>
+        <v>549522300</v>
       </c>
       <c r="I54" s="3">
-        <v>692985700</v>
+        <v>614626500</v>
       </c>
       <c r="J54" s="3">
+        <v>675699300</v>
+      </c>
+      <c r="K54" s="3">
         <v>695550700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>640923200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2110,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,8 +2124,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1989,8 +2154,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2018,37 +2186,43 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>31900</v>
+        <v>72900</v>
       </c>
       <c r="E59" s="3">
-        <v>166900</v>
+        <v>31100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>162700</v>
       </c>
       <c r="G59" s="3">
-        <v>215500</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>262700</v>
+        <v>210100</v>
       </c>
       <c r="I59" s="3">
-        <v>808300</v>
+        <v>256100</v>
       </c>
       <c r="J59" s="3">
+        <v>788200</v>
+      </c>
+      <c r="K59" s="3">
         <v>503600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>529000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2076,66 +2250,75 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100495600</v>
+        <v>103563900</v>
       </c>
       <c r="E61" s="3">
-        <v>95095700</v>
+        <v>97988800</v>
       </c>
       <c r="F61" s="3">
-        <v>94496300</v>
+        <v>92723500</v>
       </c>
       <c r="G61" s="3">
-        <v>97368300</v>
+        <v>92139100</v>
       </c>
       <c r="H61" s="3">
-        <v>95301800</v>
+        <v>94939400</v>
       </c>
       <c r="I61" s="3">
-        <v>99269300</v>
+        <v>92924500</v>
       </c>
       <c r="J61" s="3">
+        <v>96793100</v>
+      </c>
+      <c r="K61" s="3">
         <v>94816300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>89140700</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1487500</v>
+        <v>1553700</v>
       </c>
       <c r="E62" s="3">
-        <v>1422900</v>
+        <v>1450400</v>
       </c>
       <c r="F62" s="3">
-        <v>1002100</v>
+        <v>1387400</v>
       </c>
       <c r="G62" s="3">
-        <v>1039100</v>
+        <v>977100</v>
       </c>
       <c r="H62" s="3">
-        <v>673400</v>
+        <v>1013100</v>
       </c>
       <c r="I62" s="3">
-        <v>2594000</v>
+        <v>656600</v>
       </c>
       <c r="J62" s="3">
+        <v>2529300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1827100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2123100</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2346,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2378,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2410,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>539612800</v>
+        <v>533319900</v>
       </c>
       <c r="E66" s="3">
-        <v>534781000</v>
+        <v>526152200</v>
       </c>
       <c r="F66" s="3">
-        <v>535837500</v>
+        <v>521440900</v>
       </c>
       <c r="G66" s="3">
-        <v>526363300</v>
+        <v>522471100</v>
       </c>
       <c r="H66" s="3">
-        <v>594029100</v>
+        <v>513233200</v>
       </c>
       <c r="I66" s="3">
-        <v>652719300</v>
+        <v>579211100</v>
       </c>
       <c r="J66" s="3">
+        <v>636437300</v>
+      </c>
+      <c r="K66" s="3">
         <v>659820700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>606173500</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2458,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2488,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,8 +2520,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2350,8 +2552,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2584,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12007200</v>
+        <v>11968100</v>
       </c>
       <c r="E72" s="3">
-        <v>12128400</v>
+        <v>11707700</v>
       </c>
       <c r="F72" s="3">
-        <v>12035500</v>
+        <v>11825900</v>
       </c>
       <c r="G72" s="3">
-        <v>12108100</v>
+        <v>11735300</v>
       </c>
       <c r="H72" s="3">
-        <v>12591300</v>
+        <v>11806100</v>
       </c>
       <c r="I72" s="3">
-        <v>15580800</v>
+        <v>12277200</v>
       </c>
       <c r="J72" s="3">
+        <v>15192100</v>
+      </c>
+      <c r="K72" s="3">
         <v>15258600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15422600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2648,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2680,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2712,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>38014200</v>
+        <v>37286000</v>
       </c>
       <c r="E76" s="3">
-        <v>37227600</v>
+        <v>37065900</v>
       </c>
       <c r="F76" s="3">
-        <v>36893100</v>
+        <v>36299000</v>
       </c>
       <c r="G76" s="3">
-        <v>37217500</v>
+        <v>35972800</v>
       </c>
       <c r="H76" s="3">
-        <v>36321400</v>
+        <v>36289100</v>
       </c>
       <c r="I76" s="3">
-        <v>40266400</v>
+        <v>35415300</v>
       </c>
       <c r="J76" s="3">
+        <v>39262000</v>
+      </c>
+      <c r="K76" s="3">
         <v>35730000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>34749700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2776,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E80" s="2">
         <v>43190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43008</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42643</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42277</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1838700</v>
+        <v>2065900</v>
       </c>
       <c r="E81" s="3">
-        <v>1952600</v>
+        <v>1792800</v>
       </c>
       <c r="F81" s="3">
-        <v>1811100</v>
+        <v>1903900</v>
       </c>
       <c r="G81" s="3">
-        <v>1475900</v>
+        <v>1765900</v>
       </c>
       <c r="H81" s="3">
-        <v>-1310400</v>
+        <v>1439100</v>
       </c>
       <c r="I81" s="3">
-        <v>2054900</v>
+        <v>-1277700</v>
       </c>
       <c r="J81" s="3">
+        <v>2003600</v>
+      </c>
+      <c r="K81" s="3">
         <v>2417000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3702700</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,37 +2861,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>514500</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +2923,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +2955,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +2987,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +3019,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3051,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-797400</v>
+        <v>-5728600</v>
       </c>
       <c r="E89" s="3">
-        <v>-4693200</v>
+        <v>-777500</v>
       </c>
       <c r="F89" s="3">
-        <v>14283400</v>
+        <v>-4576100</v>
       </c>
       <c r="G89" s="3">
-        <v>1860400</v>
+        <v>13927100</v>
       </c>
       <c r="H89" s="3">
-        <v>9890700</v>
+        <v>1814000</v>
       </c>
       <c r="I89" s="3">
-        <v>-12551400</v>
+        <v>9643900</v>
       </c>
       <c r="J89" s="3">
+        <v>-12238300</v>
+      </c>
+      <c r="K89" s="3">
         <v>3053300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5249700</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3099,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-901900</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3161,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3193,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>658100</v>
+        <v>-1316700</v>
       </c>
       <c r="E94" s="3">
-        <v>931700</v>
+        <v>641700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1158800</v>
+        <v>908400</v>
       </c>
       <c r="G94" s="3">
-        <v>1062300</v>
+        <v>-1129900</v>
       </c>
       <c r="H94" s="3">
-        <v>-8296500</v>
+        <v>1035800</v>
       </c>
       <c r="I94" s="3">
-        <v>-22500</v>
+        <v>-8089600</v>
       </c>
       <c r="J94" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1305400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5109700</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,37 +3241,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1283600</v>
+        <v>-1734800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1739300</v>
+        <v>-1251600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1707300</v>
+        <v>-1695900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1679800</v>
+        <v>-1664700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1652900</v>
+        <v>-1637900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1502000</v>
+        <v>-1611700</v>
       </c>
       <c r="J96" s="3">
+        <v>-1464500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1127600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2882800</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3303,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3335,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +3367,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>979600</v>
+        <v>2530000</v>
       </c>
       <c r="E100" s="3">
-        <v>344700</v>
+        <v>955100</v>
       </c>
       <c r="F100" s="3">
-        <v>-584800</v>
+        <v>336100</v>
       </c>
       <c r="G100" s="3">
-        <v>904800</v>
+        <v>-570200</v>
       </c>
       <c r="H100" s="3">
-        <v>5985500</v>
+        <v>882300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1712400</v>
+        <v>5836200</v>
       </c>
       <c r="J100" s="3">
+        <v>-1669700</v>
+      </c>
+      <c r="K100" s="3">
         <v>2674600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1526700</v>
+        <v>895700</v>
       </c>
       <c r="E101" s="3">
-        <v>-223500</v>
+        <v>1488600</v>
       </c>
       <c r="F101" s="3">
-        <v>-308400</v>
+        <v>-217900</v>
       </c>
       <c r="G101" s="3">
-        <v>-1619500</v>
+        <v>-300700</v>
       </c>
       <c r="H101" s="3">
-        <v>-3136000</v>
+        <v>-1579100</v>
       </c>
       <c r="I101" s="3">
-        <v>3232500</v>
+        <v>-3057800</v>
       </c>
       <c r="J101" s="3">
+        <v>3151900</v>
+      </c>
+      <c r="K101" s="3">
         <v>2285600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2106400</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2366900</v>
+        <v>-3619600</v>
       </c>
       <c r="E102" s="3">
-        <v>-2987300</v>
+        <v>2307900</v>
       </c>
       <c r="F102" s="3">
-        <v>11578400</v>
+        <v>-2912800</v>
       </c>
       <c r="G102" s="3">
-        <v>949100</v>
+        <v>11289600</v>
       </c>
       <c r="H102" s="3">
-        <v>4443600</v>
+        <v>925400</v>
       </c>
       <c r="I102" s="3">
-        <v>-11053800</v>
+        <v>4332700</v>
       </c>
       <c r="J102" s="3">
+        <v>-10778100</v>
+      </c>
+      <c r="K102" s="3">
         <v>6708200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7853900</v>
       </c>
     </row>

--- a/Financials/Quarterly/NABZY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/NABZY_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704140F4-6AB9-4A9D-B317-494DEAE801BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="NABZY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>NABZY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,96 +654,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F7" s="2">
         <v>43373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43008</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42643</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42277</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10223400</v>
+        <v>9571400</v>
       </c>
       <c r="E8" s="3">
-        <v>9970800</v>
+        <v>10082200</v>
       </c>
       <c r="F8" s="3">
-        <v>9941800</v>
+        <v>9724900</v>
       </c>
       <c r="G8" s="3">
-        <v>9445800</v>
+        <v>9484600</v>
       </c>
       <c r="H8" s="3">
-        <v>9709700</v>
+        <v>9457000</v>
       </c>
       <c r="I8" s="3">
+        <v>8985200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>9236300</v>
+      </c>
+      <c r="K8" s="3">
         <v>9837800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>9764900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>10553900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>22072000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -809,8 +786,14 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,8 +824,14 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,8 +844,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,8 +878,14 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -919,8 +916,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -951,40 +954,52 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-296400</v>
+        <v>-644700</v>
       </c>
       <c r="E15" s="3">
-        <v>-255400</v>
+        <v>-305500</v>
       </c>
       <c r="F15" s="3">
-        <v>-264600</v>
+        <v>-282000</v>
       </c>
       <c r="G15" s="3">
-        <v>-254700</v>
+        <v>-243000</v>
       </c>
       <c r="H15" s="3">
-        <v>-220000</v>
+        <v>-251700</v>
       </c>
       <c r="I15" s="3">
+        <v>-242300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-209300</v>
+      </c>
+      <c r="K15" s="3">
         <v>-219300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-502300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-346800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-493400</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,72 +1009,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5744900</v>
+        <v>5301900</v>
       </c>
       <c r="E17" s="3">
-        <v>5454100</v>
+        <v>5851100</v>
       </c>
       <c r="F17" s="3">
-        <v>5442100</v>
+        <v>5464800</v>
       </c>
       <c r="G17" s="3">
-        <v>5202200</v>
+        <v>5188200</v>
       </c>
       <c r="H17" s="3">
-        <v>5531200</v>
+        <v>5176700</v>
       </c>
       <c r="I17" s="3">
+        <v>4948600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5261500</v>
+      </c>
+      <c r="K17" s="3">
         <v>5443500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5571600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6343900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>12952700</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4478500</v>
+        <v>4269500</v>
       </c>
       <c r="E18" s="3">
-        <v>4516700</v>
+        <v>4231200</v>
       </c>
       <c r="F18" s="3">
-        <v>4499700</v>
+        <v>4260100</v>
       </c>
       <c r="G18" s="3">
-        <v>4243600</v>
+        <v>4296400</v>
       </c>
       <c r="H18" s="3">
-        <v>4178500</v>
+        <v>4280300</v>
       </c>
       <c r="I18" s="3">
+        <v>4036700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3974700</v>
+      </c>
+      <c r="K18" s="3">
         <v>4394300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4193400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>4209900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>9119300</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1072,72 +1101,86 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1406500</v>
+        <v>-2214800</v>
       </c>
       <c r="E20" s="3">
-        <v>-1645600</v>
+        <v>-1455700</v>
       </c>
       <c r="F20" s="3">
-        <v>-1190700</v>
+        <v>-1337900</v>
       </c>
       <c r="G20" s="3">
-        <v>-1424900</v>
+        <v>-1565400</v>
       </c>
       <c r="H20" s="3">
-        <v>-999000</v>
+        <v>-1132700</v>
       </c>
       <c r="I20" s="3">
+        <v>-1355400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-950300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1221900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1142600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-434600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-3472700</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3113000</v>
+        <v>2393900</v>
       </c>
       <c r="E21" s="3">
-        <v>3126400</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
+        <v>3081000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2961200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2974000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>3391800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>3323100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4038000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>6161100</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1168,72 +1211,90 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3072000</v>
+        <v>2054700</v>
       </c>
       <c r="E23" s="3">
-        <v>2871000</v>
+        <v>2775500</v>
       </c>
       <c r="F23" s="3">
-        <v>3309000</v>
+        <v>2922200</v>
       </c>
       <c r="G23" s="3">
-        <v>2818700</v>
+        <v>2731000</v>
       </c>
       <c r="H23" s="3">
-        <v>3179500</v>
+        <v>3147600</v>
       </c>
       <c r="I23" s="3">
+        <v>2681200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3024500</v>
+      </c>
+      <c r="K23" s="3">
         <v>3172400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3050700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3775300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>5646600</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>900600</v>
+        <v>584200</v>
       </c>
       <c r="E24" s="3">
-        <v>836300</v>
+        <v>820400</v>
       </c>
       <c r="F24" s="3">
-        <v>958000</v>
+        <v>856700</v>
       </c>
       <c r="G24" s="3">
-        <v>796600</v>
+        <v>795500</v>
       </c>
       <c r="H24" s="3">
-        <v>916900</v>
+        <v>911200</v>
       </c>
       <c r="I24" s="3">
+        <v>757800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>872200</v>
+      </c>
+      <c r="K24" s="3">
         <v>889300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>523600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1428700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1885100</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1264,72 +1325,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2171300</v>
+        <v>1470500</v>
       </c>
       <c r="E26" s="3">
-        <v>2034800</v>
+        <v>1955100</v>
       </c>
       <c r="F26" s="3">
-        <v>2351000</v>
+        <v>2065400</v>
       </c>
       <c r="G26" s="3">
-        <v>2022000</v>
+        <v>1935500</v>
       </c>
       <c r="H26" s="3">
-        <v>2262600</v>
+        <v>2236400</v>
       </c>
       <c r="I26" s="3">
+        <v>1923400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2152300</v>
+      </c>
+      <c r="K26" s="3">
         <v>2283100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2527200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2346600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3761500</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2134500</v>
+        <v>1448300</v>
       </c>
       <c r="E27" s="3">
-        <v>1998700</v>
+        <v>1919400</v>
       </c>
       <c r="F27" s="3">
-        <v>2314900</v>
+        <v>2030400</v>
       </c>
       <c r="G27" s="3">
-        <v>1986700</v>
+        <v>1901200</v>
       </c>
       <c r="H27" s="3">
-        <v>2218700</v>
+        <v>2202100</v>
       </c>
       <c r="I27" s="3">
+        <v>1889800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2110500</v>
+      </c>
+      <c r="K27" s="3">
         <v>2235700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2456400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2253000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3620000</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1360,40 +1439,52 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-68600</v>
+        <v>-53200</v>
       </c>
       <c r="E29" s="3">
-        <v>-205900</v>
+        <v>-141300</v>
       </c>
       <c r="F29" s="3">
-        <v>-411100</v>
+        <v>-65300</v>
       </c>
       <c r="G29" s="3">
-        <v>-220700</v>
+        <v>-195800</v>
       </c>
       <c r="H29" s="3">
-        <v>-779700</v>
+        <v>-391000</v>
       </c>
       <c r="I29" s="3">
+        <v>-210000</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-741600</v>
+      </c>
+      <c r="K29" s="3">
         <v>-3513400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-452800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>164000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>82700</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1424,8 +1515,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1456,72 +1553,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1406500</v>
+        <v>2214800</v>
       </c>
       <c r="E32" s="3">
-        <v>1645600</v>
+        <v>1455700</v>
       </c>
       <c r="F32" s="3">
-        <v>1190700</v>
+        <v>1337900</v>
       </c>
       <c r="G32" s="3">
-        <v>1424900</v>
+        <v>1565400</v>
       </c>
       <c r="H32" s="3">
-        <v>999000</v>
+        <v>1132700</v>
       </c>
       <c r="I32" s="3">
+        <v>1355400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>950300</v>
+      </c>
+      <c r="K32" s="3">
         <v>1221900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1142600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>434600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>3472700</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2065900</v>
+        <v>1395100</v>
       </c>
       <c r="E33" s="3">
-        <v>1792800</v>
+        <v>1778100</v>
       </c>
       <c r="F33" s="3">
-        <v>1903900</v>
+        <v>1965200</v>
       </c>
       <c r="G33" s="3">
-        <v>1765900</v>
+        <v>1705400</v>
       </c>
       <c r="H33" s="3">
-        <v>1439100</v>
+        <v>1811000</v>
       </c>
       <c r="I33" s="3">
+        <v>1679800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1368900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1277700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2003600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2417000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3702700</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1552,77 +1667,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2065900</v>
+        <v>1395100</v>
       </c>
       <c r="E35" s="3">
-        <v>1792800</v>
+        <v>1778100</v>
       </c>
       <c r="F35" s="3">
-        <v>1903900</v>
+        <v>1965200</v>
       </c>
       <c r="G35" s="3">
-        <v>1765900</v>
+        <v>1705400</v>
       </c>
       <c r="H35" s="3">
-        <v>1439100</v>
+        <v>1811000</v>
       </c>
       <c r="I35" s="3">
+        <v>1679800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1368900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1277700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2003600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2417000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3702700</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F38" s="2">
         <v>43373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43008</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42643</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42277</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1635,8 +1768,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,72 +1784,86 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>61253200</v>
+        <v>58946100</v>
       </c>
       <c r="E41" s="3">
-        <v>59812800</v>
+        <v>54823900</v>
       </c>
       <c r="F41" s="3">
-        <v>57231100</v>
+        <v>54348800</v>
       </c>
       <c r="G41" s="3">
-        <v>66574300</v>
+        <v>56896100</v>
       </c>
       <c r="H41" s="3">
-        <v>53675200</v>
+        <v>54440300</v>
       </c>
       <c r="I41" s="3">
+        <v>63328000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>51057800</v>
+      </c>
+      <c r="K41" s="3">
         <v>55009500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>57681800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>65310500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>58136500</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>65167100</v>
+        <v>73106000</v>
       </c>
       <c r="E42" s="3">
-        <v>47389800</v>
+        <v>64557500</v>
       </c>
       <c r="F42" s="3">
-        <v>50164600</v>
+        <v>61989400</v>
       </c>
       <c r="G42" s="3">
-        <v>51397000</v>
+        <v>45078900</v>
       </c>
       <c r="H42" s="3">
-        <v>52502200</v>
+        <v>47718400</v>
       </c>
       <c r="I42" s="3">
+        <v>48890800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>49942000</v>
+      </c>
+      <c r="K42" s="3">
         <v>51994200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>59594100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>59347500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>97366800</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1745,8 +1894,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,8 +1932,14 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1809,8 +1970,14 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1841,8 +2008,14 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1873,72 +2046,90 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>848300</v>
+        <v>751700</v>
       </c>
       <c r="E48" s="3">
-        <v>880800</v>
+        <v>762500</v>
       </c>
       <c r="F48" s="3">
-        <v>930400</v>
+        <v>806900</v>
       </c>
       <c r="G48" s="3">
-        <v>945900</v>
+        <v>837900</v>
       </c>
       <c r="H48" s="3">
-        <v>1006800</v>
+        <v>885000</v>
       </c>
       <c r="I48" s="3">
+        <v>899800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>957700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1038600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1231800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1413500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1416400</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4094300</v>
+        <v>3752600</v>
       </c>
       <c r="E49" s="3">
-        <v>3967000</v>
+        <v>3951900</v>
       </c>
       <c r="F49" s="3">
-        <v>3962700</v>
+        <v>3894700</v>
       </c>
       <c r="G49" s="3">
-        <v>3815500</v>
+        <v>3773500</v>
       </c>
       <c r="H49" s="3">
-        <v>3751200</v>
+        <v>3769500</v>
       </c>
       <c r="I49" s="3">
+        <v>3629500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3568200</v>
+      </c>
+      <c r="K49" s="3">
         <v>4825200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5198000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5826600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5601600</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1969,8 +2160,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2001,40 +2198,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1473700</v>
+        <v>1796900</v>
       </c>
       <c r="E52" s="3">
-        <v>1464500</v>
+        <v>1502100</v>
       </c>
       <c r="F52" s="3">
-        <v>1406500</v>
+        <v>1401900</v>
       </c>
       <c r="G52" s="3">
-        <v>1210500</v>
+        <v>1393100</v>
       </c>
       <c r="H52" s="3">
-        <v>1361900</v>
+        <v>1337900</v>
       </c>
       <c r="I52" s="3">
+        <v>1151500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1295500</v>
+      </c>
+      <c r="K52" s="3">
         <v>887200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1514800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1002100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1173300</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2065,40 +2274,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>570605800</v>
+        <v>570114500</v>
       </c>
       <c r="E54" s="3">
-        <v>563218100</v>
+        <v>556532600</v>
       </c>
       <c r="F54" s="3">
-        <v>557739900</v>
+        <v>542781200</v>
       </c>
       <c r="G54" s="3">
-        <v>558443900</v>
+        <v>535753800</v>
       </c>
       <c r="H54" s="3">
-        <v>549522300</v>
+        <v>530542700</v>
       </c>
       <c r="I54" s="3">
+        <v>531212400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>522725800</v>
+      </c>
+      <c r="K54" s="3">
         <v>614626500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>675699300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>695550700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>640923200</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2111,8 +2332,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2125,8 +2348,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2157,8 +2382,14 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2189,40 +2420,52 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>72900</v>
+        <v>315000</v>
       </c>
       <c r="E59" s="3">
-        <v>31100</v>
+        <v>154100</v>
       </c>
       <c r="F59" s="3">
-        <v>162700</v>
+        <v>69300</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>29600</v>
       </c>
       <c r="H59" s="3">
-        <v>210100</v>
+        <v>154800</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>199900</v>
+      </c>
+      <c r="K59" s="3">
         <v>256100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>788200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>503600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>529000</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2253,72 +2496,90 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>103563900</v>
+        <v>100775000</v>
       </c>
       <c r="E61" s="3">
-        <v>97988800</v>
+        <v>99071000</v>
       </c>
       <c r="F61" s="3">
-        <v>92723500</v>
+        <v>98513700</v>
       </c>
       <c r="G61" s="3">
-        <v>92139100</v>
+        <v>93210500</v>
       </c>
       <c r="H61" s="3">
-        <v>94939400</v>
+        <v>88202000</v>
       </c>
       <c r="I61" s="3">
+        <v>87646100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>90309900</v>
+      </c>
+      <c r="K61" s="3">
         <v>92924500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>96793100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>94816300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>89140700</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1553700</v>
+        <v>2360200</v>
       </c>
       <c r="E62" s="3">
-        <v>1450400</v>
+        <v>1728300</v>
       </c>
       <c r="F62" s="3">
-        <v>1387400</v>
+        <v>1477900</v>
       </c>
       <c r="G62" s="3">
-        <v>977100</v>
+        <v>1379700</v>
       </c>
       <c r="H62" s="3">
-        <v>1013100</v>
+        <v>1319800</v>
       </c>
       <c r="I62" s="3">
+        <v>929400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>963700</v>
+      </c>
+      <c r="K62" s="3">
         <v>656600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2529300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1827100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2123100</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2349,8 +2610,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2381,8 +2648,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2413,40 +2686,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>533319900</v>
+        <v>532698300</v>
       </c>
       <c r="E66" s="3">
-        <v>526152200</v>
+        <v>520134100</v>
       </c>
       <c r="F66" s="3">
-        <v>521440900</v>
+        <v>507313500</v>
       </c>
       <c r="G66" s="3">
-        <v>522471100</v>
+        <v>500495300</v>
       </c>
       <c r="H66" s="3">
-        <v>513233200</v>
+        <v>496013800</v>
       </c>
       <c r="I66" s="3">
+        <v>496993700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>488206300</v>
+      </c>
+      <c r="K66" s="3">
         <v>579211100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>636437300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>659820700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>606173500</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2459,8 +2744,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2491,8 +2778,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2523,8 +2816,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2555,8 +2854,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2587,40 +2892,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11968100</v>
+        <v>11288200</v>
       </c>
       <c r="E72" s="3">
-        <v>11707700</v>
+        <v>11397900</v>
       </c>
       <c r="F72" s="3">
-        <v>11825900</v>
+        <v>11384500</v>
       </c>
       <c r="G72" s="3">
-        <v>11735300</v>
+        <v>11136800</v>
       </c>
       <c r="H72" s="3">
-        <v>11806100</v>
+        <v>11249200</v>
       </c>
       <c r="I72" s="3">
+        <v>11163100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>11230400</v>
+      </c>
+      <c r="K72" s="3">
         <v>12277200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>15192100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>15258600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>15422600</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2651,8 +2968,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2683,8 +3006,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2715,40 +3044,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>37286000</v>
+        <v>37416100</v>
       </c>
       <c r="E76" s="3">
-        <v>37065900</v>
+        <v>36398500</v>
       </c>
       <c r="F76" s="3">
-        <v>36299000</v>
+        <v>35467800</v>
       </c>
       <c r="G76" s="3">
-        <v>35972800</v>
+        <v>35258500</v>
       </c>
       <c r="H76" s="3">
-        <v>36289100</v>
+        <v>34528900</v>
       </c>
       <c r="I76" s="3">
+        <v>34218700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>34519500</v>
+      </c>
+      <c r="K76" s="3">
         <v>35415300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>39262000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>35730000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>34749700</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2779,77 +3120,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F80" s="2">
         <v>43373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43008</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42643</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42277</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2065900</v>
+        <v>1395100</v>
       </c>
       <c r="E81" s="3">
-        <v>1792800</v>
+        <v>1778100</v>
       </c>
       <c r="F81" s="3">
-        <v>1903900</v>
+        <v>1965200</v>
       </c>
       <c r="G81" s="3">
-        <v>1765900</v>
+        <v>1705400</v>
       </c>
       <c r="H81" s="3">
-        <v>1439100</v>
+        <v>1811000</v>
       </c>
       <c r="I81" s="3">
+        <v>1679800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1368900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1277700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2003600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2417000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3702700</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2862,8 +3221,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2888,14 +3249,20 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>514500</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2926,8 +3293,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2958,8 +3331,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2990,8 +3369,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3022,8 +3407,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3054,40 +3445,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5728600</v>
+        <v>2967300</v>
       </c>
       <c r="E89" s="3">
-        <v>-777500</v>
+        <v>4038700</v>
       </c>
       <c r="F89" s="3">
-        <v>-4576100</v>
+        <v>-5449300</v>
       </c>
       <c r="G89" s="3">
-        <v>13927100</v>
+        <v>-739600</v>
       </c>
       <c r="H89" s="3">
-        <v>1814000</v>
+        <v>-4353000</v>
       </c>
       <c r="I89" s="3">
+        <v>13248000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1725600</v>
+      </c>
+      <c r="K89" s="3">
         <v>9643900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-12238300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>3053300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-5249700</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3100,40 +3503,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-457600</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
+        <v>-306200</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-901900</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3164,8 +3575,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3196,40 +3613,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1316700</v>
+        <v>1971900</v>
       </c>
       <c r="E94" s="3">
-        <v>641700</v>
+        <v>-213300</v>
       </c>
       <c r="F94" s="3">
-        <v>908400</v>
+        <v>-1252500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1129900</v>
+        <v>610400</v>
       </c>
       <c r="H94" s="3">
-        <v>1035800</v>
+        <v>864100</v>
       </c>
       <c r="I94" s="3">
+        <v>-1074800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>985300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-8089600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-21900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1305400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5109700</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3242,40 +3671,48 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1734800</v>
+        <v>-1006100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1251600</v>
+        <v>-1191900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1695900</v>
+        <v>-1650200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1664700</v>
+        <v>-1190500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1637900</v>
+        <v>-1613200</v>
       </c>
       <c r="I96" s="3">
+        <v>-1583600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1558000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1611700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1464500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1127600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-2882800</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3306,8 +3743,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3338,8 +3781,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3370,100 +3819,124 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2530000</v>
+        <v>-1766600</v>
       </c>
       <c r="E100" s="3">
-        <v>955100</v>
+        <v>-2117300</v>
       </c>
       <c r="F100" s="3">
-        <v>336100</v>
+        <v>2406600</v>
       </c>
       <c r="G100" s="3">
-        <v>-570200</v>
+        <v>908600</v>
       </c>
       <c r="H100" s="3">
-        <v>882300</v>
+        <v>319700</v>
       </c>
       <c r="I100" s="3">
+        <v>-542400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>839200</v>
+      </c>
+      <c r="K100" s="3">
         <v>5836200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1669700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2674600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>895700</v>
+        <v>644700</v>
       </c>
       <c r="E101" s="3">
-        <v>1488600</v>
+        <v>585500</v>
       </c>
       <c r="F101" s="3">
-        <v>-217900</v>
+        <v>852000</v>
       </c>
       <c r="G101" s="3">
-        <v>-300700</v>
+        <v>1416000</v>
       </c>
       <c r="H101" s="3">
-        <v>-1579100</v>
+        <v>-207300</v>
       </c>
       <c r="I101" s="3">
+        <v>-286000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1502100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3057800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>3151900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>2285600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>2106400</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3619600</v>
+        <v>3817300</v>
       </c>
       <c r="E102" s="3">
-        <v>2307900</v>
+        <v>2293600</v>
       </c>
       <c r="F102" s="3">
-        <v>-2912800</v>
+        <v>-3443100</v>
       </c>
       <c r="G102" s="3">
-        <v>11289600</v>
+        <v>2195300</v>
       </c>
       <c r="H102" s="3">
-        <v>925400</v>
+        <v>-2770700</v>
       </c>
       <c r="I102" s="3">
+        <v>10739100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>880300</v>
+      </c>
+      <c r="K102" s="3">
         <v>4332700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-10778100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>6708200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-7853900</v>
       </c>
     </row>
